--- a/TemplateFile/Template.xlsx
+++ b/TemplateFile/Template.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung-Hieu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dự án Thủy Lợi\CSDLThuyLoi\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
-  </bookViews>
-  <sheets>
-    <sheet name="sheet_name" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="sheet_name" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>TT</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>BẢNG TỔNG HỢP CHỈ TIÊU CHÂT LƯỢNG NƯỚC</t>
-  </si>
-  <si>
-    <t>Ngày 15/03</t>
   </si>
   <si>
     <t>Nitrit 
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>CHỈ TIÊU CHẤT LƯỢNG NƯỚC ĐO ĐẠC LÚC 9 GIỜ SÁNG NGÀY dd/MM/yyyy</t>
   </si>
   <si>
     <t>Trước cống Cầu Sập và kênh Quản Lộ – Bạc Liêu</t>
@@ -217,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -310,11 +304,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,32 +340,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -367,6 +370,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +689,10 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,477 +705,471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ivCSaDODb3px5P+7jVvjeVFsPYLFLJMIGZuxNdwvSwQ1cifM4jUELItCR2HXMB14HWYTjcn/EMsR44hSnP8FDQ==" saltValue="6RxbdB+DQhKGX8MPZ5OWxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="5">
-    <mergeCell ref="B5:O5"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JNOTxTVnUTeln5XplItqJwUAbnDYowrQhdjsvG89kLGnRqESaYgmqsN1IM1OpSOSB7crNNDcu/c56cQpJNaShQ==" saltValue="GOUTspHoR0+Mv4rICJ3IqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
     <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:O2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
   </mergeCells>

--- a/TemplateFile/Template.xlsx
+++ b/TemplateFile/Template.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dự án Thủy Lợi\CSDLThuyLoi\TemplateFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung-Hieu\Desktop\MTN\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -371,12 +371,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -390,21 +384,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,48 +707,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -789,8 +791,8 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -836,20 +838,20 @@
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1167,15 +1169,16 @@
       <c r="O20" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JNOTxTVnUTeln5XplItqJwUAbnDYowrQhdjsvG89kLGnRqESaYgmqsN1IM1OpSOSB7crNNDcu/c56cQpJNaShQ==" saltValue="GOUTspHoR0+Mv4rICJ3IqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="3">
+  <sheetProtection algorithmName="SHA-512" hashValue="uZ8PQOUfsZJfBqkgZSPR2o0jKqmvEBKfRSGH9JmRt1/Cf1FdbF+EBW4QrAiTAKG2rLCyMD3HLSG+p/9kcy9VnA==" saltValue="2PSXtgSGUT5kTiijyGvqug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:O5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chú ý" error="Nhập số nguyên dương hoặc số phập phân lớn hơn 0!" promptTitle="Chú ý" prompt="Nhập số nguyên dương hoặc số phập phân lớn hơn 0!" sqref="C6:O20">
-      <formula1>0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chú ý" error="Nhập số nguyên dương hoặc số phập phân lớn hơn hoặc bằng 0!" promptTitle="Chú ý" prompt="Nhập số nguyên dương hoặc số phập phân lớn hơn hoặc bằng  0!" sqref="C6:O20">
+      <formula1>-1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TemplateFile/Template.xlsx
+++ b/TemplateFile/Template.xlsx
@@ -397,15 +397,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1169,7 +1169,7 @@
       <c r="O20" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uZ8PQOUfsZJfBqkgZSPR2o0jKqmvEBKfRSGH9JmRt1/Cf1FdbF+EBW4QrAiTAKG2rLCyMD3HLSG+p/9kcy9VnA==" saltValue="2PSXtgSGUT5kTiijyGvqug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:A4"/>

--- a/TemplateFile/Template.xlsx
+++ b/TemplateFile/Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung-Hieu\Desktop\MTN\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="sheet_name" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+  </bookViews>
+  <sheets>
+    <sheet name="sheet_name" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,9 +388,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +404,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,31 +710,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -747,8 +750,8 @@
       <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -791,8 +794,8 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -838,20 +841,20 @@
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1169,7 +1172,6 @@
       <c r="O20" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="A1:A4"/>
